--- a/biology/Médecine/Économie_de_la_santé/Économie_de_la_santé.xlsx
+++ b/biology/Médecine/Économie_de_la_santé/Économie_de_la_santé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89conomie_de_la_sant%C3%A9</t>
+          <t>Économie_de_la_santé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'économie de la santé est un domaine de la science économique consacré à l'étude de la santé. L'économie de la santé s'intéresse à l'organisation du système de santé, aux déterminants de l'offre de soins et de la demande de soins[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'économie de la santé est un domaine de la science économique consacré à l'étude de la santé. L'économie de la santé s'intéresse à l'organisation du système de santé, aux déterminants de l'offre de soins et de la demande de soins.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89conomie_de_la_sant%C3%A9</t>
+          <t>Économie_de_la_santé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On attribue une double filiation à cette discipline : la comptabilité et la médecine. Filiation illustrée en France par la création en 1955 du premier centre de recherche en économie de la santé : division d'économie médicale du CREDOC[2].
-L'article de Kenneth Arrow de 1963 « Uncertainty and the Welfare Economics of Medical Care (« Incertitude et économie du bien-être des soins médicaux » ) »[3] est considéré comme l'article fondateur de cette discipline[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On attribue une double filiation à cette discipline : la comptabilité et la médecine. Filiation illustrée en France par la création en 1955 du premier centre de recherche en économie de la santé : division d'économie médicale du CREDOC.
+L'article de Kenneth Arrow de 1963 « Uncertainty and the Welfare Economics of Medical Care (« Incertitude et économie du bien-être des soins médicaux » ) » est considéré comme l'article fondateur de cette discipline.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89conomie_de_la_sant%C3%A9</t>
+          <t>Économie_de_la_santé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Revues
-Voir Liste des revues académiques en économie
+          <t>Revues</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Voir Liste des revues académiques en économie
 Health Economics (en)
 Journal of Health Economics (en)
 « Journal de Gestion et d’Économie de la Santé », sur cairn.info (consulté le 19 mai 2020).</t>
